--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>fuf</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>dg</t>
+  </si>
+  <si>
+    <t>gfdglpfdg</t>
+  </si>
+  <si>
+    <t>gdgdf</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>df</t>
   </si>
 </sst>
 </file>
@@ -377,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,6 +445,56 @@
       </c>
       <c r="N1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
